--- a/Prompt-Script/DB/query.xlsx
+++ b/Prompt-Script/DB/query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bingyuew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B5D82-0A8D-49FF-B228-6C74A36A2B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DDCA8D-0D89-4B3F-846C-B881C6C17F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-225" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="738">
   <si>
     <t>code</t>
   </si>
@@ -6850,6 +6850,25 @@
   </si>
   <si>
     <t>Get the name of every liberty cell</t>
+  </si>
+  <si>
+    <t># Get OpenDB
+db = ord.get_db()
+# Get all read libraries
+libs = db.getLibs()
+# Create a list to store the names
+libcell_name_list = []
+# Iterate through all libraries
+for lib in libs:
+	# Get all library cells in this library file
+        lib_masters = lib.getMasters()
+	# Iterate through all library cells
+        for master in lib_masters:
+		# Get the name of the library cell
+                libcell_name = master.getName()
+		# Add the name to the list
+                libcell_name_list.append(libcell_name)
+return libcell_name_list</t>
   </si>
 </sst>
 </file>
@@ -7131,8 +7150,8 @@
   </sheetPr>
   <dimension ref="A1:B395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7934,7 +7953,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -7942,8 +7961,12 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
